--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21672DA-485B-4CFB-AC60-8E0B10ED3D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADD4A3-E249-4856-9F6B-B94942C23CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -872,11 +872,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1227,7 @@
       <c r="F1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -1620,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3043,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B23F45-281A-4200-9909-6BF3D30C15F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B25E7-100A-442D-9532-AA927FBA41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="models" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$D$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$D$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="167">
   <si>
     <t>faction</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>default_bow</t>
+  </si>
+  <si>
+    <t>The Golden King</t>
   </si>
 </sst>
 </file>
@@ -932,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3514,13 +3517,13 @@
         <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -3534,13 +3537,13 @@
         <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D130">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
@@ -3554,13 +3557,13 @@
         <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
       </c>
       <c r="D131">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
@@ -3574,13 +3577,13 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
       </c>
       <c r="D132">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
@@ -3594,13 +3597,13 @@
         <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
@@ -3614,13 +3617,13 @@
         <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
@@ -3634,13 +3637,13 @@
         <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
@@ -3654,13 +3657,13 @@
         <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
@@ -3674,13 +3677,13 @@
         <v>150</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -3694,13 +3697,13 @@
         <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
@@ -3711,16 +3714,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D139">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -3734,13 +3737,13 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
@@ -3754,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3769,10 +3772,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>100</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D141">
-    <sortCondition ref="A2:A141"/>
-    <sortCondition ref="C2:C141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D142">
+    <sortCondition ref="A2:A142"/>
+    <sortCondition ref="C2:C142"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B25E7-100A-442D-9532-AA927FBA41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65AE9B9-E1C2-46C7-81BC-EE75A6F8BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="192">
   <si>
     <t>faction</t>
   </si>
@@ -540,6 +540,81 @@
   </si>
   <si>
     <t>The Golden King</t>
+  </si>
+  <si>
+    <t>Aldor</t>
+  </si>
+  <si>
+    <t>Boromir of Gondor</t>
+  </si>
+  <si>
+    <t>Captain of Rohan</t>
+  </si>
+  <si>
+    <t>Deorwine</t>
+  </si>
+  <si>
+    <t>Elfhelm</t>
+  </si>
+  <si>
+    <t>Eorl the Young</t>
+  </si>
+  <si>
+    <t>Erkenbrand</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>Gondor Battlecry Trebuchet</t>
+  </si>
+  <si>
+    <t>Grimbold</t>
+  </si>
+  <si>
+    <t>Haleth</t>
+  </si>
+  <si>
+    <t>Helm Hammerhand</t>
+  </si>
+  <si>
+    <t>Irolas</t>
+  </si>
+  <si>
+    <t>King of Men</t>
+  </si>
+  <si>
+    <t>King's Huntsman</t>
+  </si>
+  <si>
+    <t>Meriadoc Brandybuck</t>
+  </si>
+  <si>
+    <t>Mouth of Sauron</t>
+  </si>
+  <si>
+    <t>Peregrin Took</t>
+  </si>
+  <si>
+    <t>Rohan Outrider</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Son of Eorl</t>
+  </si>
+  <si>
+    <t>The Dwimmerlaik</t>
+  </si>
+  <si>
+    <t>The Tainted</t>
+  </si>
+  <si>
+    <t>Theodred</t>
   </si>
 </sst>
 </file>
@@ -935,24 +1010,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,18 +1047,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -992,18 +1067,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1012,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1052,18 +1127,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1072,18 +1147,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1092,18 +1167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1112,12 +1187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1132,18 +1207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1152,18 +1227,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1172,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1192,32 +1267,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1232,18 +1307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1252,18 +1327,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1272,18 +1347,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1292,38 +1367,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1332,18 +1407,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1352,18 +1427,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1372,18 +1447,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1392,18 +1467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1412,18 +1487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1432,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1492,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1572,18 +1647,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1592,18 +1667,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1612,18 +1687,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1632,18 +1707,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1652,12 +1727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1672,18 +1747,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1692,18 +1767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1712,18 +1787,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1732,18 +1807,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1752,18 +1827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1772,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1792,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1812,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1832,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1852,18 +1927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1872,18 +1947,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1892,18 +1967,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1912,18 +1987,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1932,18 +2007,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1952,18 +2027,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1972,18 +2047,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1992,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2012,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2072,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2092,18 +2167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -2112,18 +2187,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -2132,18 +2207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2152,18 +2227,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2172,18 +2247,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -2192,18 +2267,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2212,18 +2287,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -2232,18 +2307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2252,18 +2327,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -2272,18 +2347,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -2292,18 +2367,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -2312,18 +2387,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -2332,19 +2407,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
         <v>80</v>
       </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>30</v>
-      </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
@@ -2352,15 +2427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D71">
         <v>25</v>
@@ -2372,12 +2447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
@@ -2392,18 +2467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -2412,18 +2487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -2432,18 +2507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -2452,78 +2527,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -2532,99 +2607,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>100</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>101</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D81">
+      <c r="D84">
         <v>100</v>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82">
-        <v>400</v>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83">
-        <v>70</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>130</v>
-      </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
@@ -2632,18 +2707,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -2652,18 +2727,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2672,18 +2747,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2692,18 +2767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2712,18 +2787,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -2732,18 +2807,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -2752,18 +2827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2772,18 +2847,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -2792,12 +2867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -2812,18 +2887,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -2832,18 +2907,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -2852,18 +2927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -2872,18 +2947,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -2892,18 +2967,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -2912,18 +2987,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -2932,18 +3007,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -2952,18 +3027,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -2972,18 +3047,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -2992,19 +3067,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
         <v>120</v>
       </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103">
-        <v>30</v>
-      </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
@@ -3012,18 +3087,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
@@ -3032,18 +3107,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
@@ -3052,18 +3127,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
@@ -3072,18 +3147,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -3092,18 +3167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D108">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -3112,18 +3187,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -3132,18 +3207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
@@ -3152,139 +3227,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>102</v>
       </c>
       <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>18</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" t="s">
         <v>103</v>
       </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111">
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
         <v>12</v>
       </c>
-      <c r="E111" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112">
-        <v>170</v>
-      </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113">
-        <v>145</v>
-      </c>
-      <c r="E113" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114">
-        <v>60</v>
-      </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115">
-        <v>160</v>
-      </c>
-      <c r="E115" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>132</v>
-      </c>
-      <c r="B116" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116">
-        <v>70</v>
-      </c>
-      <c r="E116" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>132</v>
-      </c>
-      <c r="B117" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117">
-        <v>75</v>
-      </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
@@ -3292,139 +3367,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>132</v>
       </c>
       <c r="B118" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118">
+        <v>60</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>160</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>70</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>75</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122">
+        <v>170</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>145</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
         <v>139</v>
       </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118">
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124">
         <v>9</v>
       </c>
-      <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" t="s">
-        <v>148</v>
-      </c>
-      <c r="C119" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119">
-        <v>75</v>
-      </c>
-      <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120">
-        <v>100</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121">
-        <v>55</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122">
-        <v>55</v>
-      </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>140</v>
-      </c>
-      <c r="B123" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123">
-        <v>40</v>
-      </c>
-      <c r="E123" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>140</v>
-      </c>
-      <c r="B124" t="s">
-        <v>141</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124">
-        <v>75</v>
-      </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
@@ -3432,18 +3507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
@@ -3452,18 +3527,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
@@ -3472,18 +3547,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
@@ -3492,310 +3567,810 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
       <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>75</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>65</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>75</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>60</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>75</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>165</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>115</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>80</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137">
+        <v>25</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138">
+        <v>65</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139">
+        <v>30</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>40</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141">
+        <v>75</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143">
+        <v>14</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
         <v>149</v>
       </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128">
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
         <v>6</v>
       </c>
-      <c r="E128" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>150</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>50</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>60</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150">
+        <v>80</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
         <v>166</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C152" t="s">
         <v>7</v>
       </c>
-      <c r="D129">
+      <c r="D152">
         <v>130</v>
       </c>
-      <c r="E129" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B130" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>11</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>13</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>187</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160">
+        <v>40</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" t="s">
         <v>17</v>
       </c>
-      <c r="D130">
+      <c r="D161">
+        <v>170</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>160</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163">
         <v>100</v>
       </c>
-      <c r="E130" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" t="s">
-        <v>152</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131">
-        <v>50</v>
-      </c>
-      <c r="E131" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132">
-        <v>60</v>
-      </c>
-      <c r="E132" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" t="s">
-        <v>156</v>
-      </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133">
-        <v>80</v>
-      </c>
-      <c r="E133" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134" t="s">
-        <v>151</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134">
-        <v>9</v>
-      </c>
-      <c r="E134" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>150</v>
-      </c>
-      <c r="B135" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135">
-        <v>11</v>
-      </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>150</v>
-      </c>
-      <c r="B136" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136">
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
         <v>6</v>
       </c>
-      <c r="E136" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-      <c r="B137" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137" t="b">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>150</v>
-      </c>
-      <c r="B138" t="s">
-        <v>161</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139">
-        <v>13</v>
-      </c>
-      <c r="E139" t="b">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>100</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>3</v>
       </c>
-      <c r="B140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" t="s">
         <v>7</v>
       </c>
-      <c r="D140">
-        <v>160</v>
-      </c>
-      <c r="E140" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="D165">
+        <v>95</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>3</v>
       </c>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141">
-        <v>100</v>
-      </c>
-      <c r="E141" t="b">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B166" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>10</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>3</v>
       </c>
-      <c r="B142" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142">
-        <v>100</v>
-      </c>
-      <c r="E142" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="B167" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167">
+        <v>10</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D142">
-    <sortCondition ref="A2:A142"/>
-    <sortCondition ref="C2:C142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F167">
+    <sortCondition ref="A2:A167"/>
+    <sortCondition ref="C2:C167"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65AE9B9-E1C2-46C7-81BC-EE75A6F8BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB744FB-4B34-4349-ABF1-7D9061751E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="213">
   <si>
     <t>faction</t>
   </si>
@@ -615,6 +615,69 @@
   </si>
   <si>
     <t>Theodred</t>
+  </si>
+  <si>
+    <t>Bill the Pony</t>
+  </si>
+  <si>
+    <t>Smeagol</t>
+  </si>
+  <si>
+    <t>Ringwraith</t>
+  </si>
+  <si>
+    <t>Shelob</t>
+  </si>
+  <si>
+    <t>Orc Taskmaster</t>
+  </si>
+  <si>
+    <t>Black Guard Drummer</t>
+  </si>
+  <si>
+    <t>Gothmog's Enforcer</t>
+  </si>
+  <si>
+    <t>Zagdush</t>
+  </si>
+  <si>
+    <t>Goroth</t>
+  </si>
+  <si>
+    <t>Muzgur</t>
+  </si>
+  <si>
+    <t>Razgush</t>
+  </si>
+  <si>
+    <t>Orc Tracker</t>
+  </si>
+  <si>
+    <t>Morgul Stalker</t>
+  </si>
+  <si>
+    <t>Mordor War Catapult</t>
+  </si>
+  <si>
+    <t>Mordor Siege Bow</t>
+  </si>
+  <si>
+    <t>Great Beast of Gorgoroth</t>
+  </si>
+  <si>
+    <t>Uruk-Hai Captain</t>
+  </si>
+  <si>
+    <t>Snaga</t>
+  </si>
+  <si>
+    <t>Feral Uruk-Hai</t>
+  </si>
+  <si>
+    <t>Isengard Assault Ballista</t>
+  </si>
+  <si>
+    <t>Uruk-Hai Demolition Team</t>
   </si>
 </sst>
 </file>
@@ -1010,17 +1073,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1092,13 +1155,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1112,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1132,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1172,13 +1235,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1192,13 +1255,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1212,13 +1275,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1232,13 +1295,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1292,13 +1355,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1312,13 +1375,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1332,13 +1395,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1352,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1372,13 +1435,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1412,13 +1475,13 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1432,13 +1495,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1532,13 +1595,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1572,13 +1635,13 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1592,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1652,13 +1715,13 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1672,13 +1735,13 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1692,13 +1755,13 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1712,13 +1775,13 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1732,13 +1795,13 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1752,13 +1815,13 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1772,13 +1835,13 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1792,13 +1855,13 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1812,13 +1875,13 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1832,13 +1895,13 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1852,13 +1915,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1872,13 +1935,13 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1892,19 +1955,19 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,33 +1975,33 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1949,16 +2012,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -1969,16 +2032,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1989,16 +2052,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -2009,16 +2072,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2032,13 +2095,13 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -2052,13 +2115,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2072,13 +2135,13 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -2092,13 +2155,13 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -2112,13 +2175,13 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -2132,16 +2195,16 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2152,13 +2215,13 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -2169,19 +2232,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2189,16 +2252,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -2209,16 +2272,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2229,16 +2292,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2249,16 +2312,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -2272,13 +2335,13 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2292,13 +2355,13 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -2312,13 +2375,13 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2332,13 +2395,13 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -2352,13 +2415,13 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -2372,13 +2435,13 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -2392,13 +2455,13 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -2412,13 +2475,13 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -2432,13 +2495,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -2452,13 +2515,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -2472,13 +2535,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
         <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>30</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -2492,13 +2555,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -2512,10 +2575,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <v>35</v>
@@ -2532,19 +2595,19 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D76">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,19 +2615,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2572,13 +2635,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -2592,13 +2655,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -2612,13 +2675,13 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -2632,19 +2695,19 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,19 +2715,19 @@
         <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,13 +2735,13 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -2689,16 +2752,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -2709,16 +2772,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -2729,16 +2792,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2749,19 +2812,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2769,16 +2832,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2789,16 +2852,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -2812,19 +2875,19 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,13 +2895,13 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2852,13 +2915,13 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -2872,13 +2935,13 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -2892,13 +2955,13 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -2912,13 +2975,13 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -2932,13 +2995,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -2952,13 +3015,13 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -2972,13 +3035,13 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -2992,13 +3055,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -3012,13 +3075,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -3032,13 +3095,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -3052,13 +3115,13 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -3072,13 +3135,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -3092,13 +3155,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
@@ -3112,13 +3175,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
@@ -3132,13 +3195,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
@@ -3152,13 +3215,13 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -3172,13 +3235,13 @@
         <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D108">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -3192,13 +3255,13 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D109">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -3212,13 +3275,13 @@
         <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
@@ -3232,13 +3295,13 @@
         <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
@@ -3252,13 +3315,13 @@
         <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
@@ -3272,13 +3335,13 @@
         <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
@@ -3292,13 +3355,13 @@
         <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
@@ -3312,13 +3375,13 @@
         <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
@@ -3332,13 +3395,13 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
@@ -3352,13 +3415,13 @@
         <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
@@ -3369,16 +3432,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
@@ -3389,16 +3452,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
@@ -3409,13 +3472,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D120">
         <v>70</v>
@@ -3429,16 +3492,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D121">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
@@ -3449,16 +3512,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D122">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
@@ -3469,16 +3532,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D123">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
@@ -3489,16 +3552,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -3509,56 +3572,56 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D125">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D126">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
@@ -3569,16 +3632,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D128">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
@@ -3589,16 +3652,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -3609,16 +3672,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
@@ -3629,16 +3692,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
@@ -3649,16 +3712,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D132">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
@@ -3669,16 +3732,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D133">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
@@ -3689,16 +3752,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134">
         <v>7</v>
-      </c>
-      <c r="D134">
-        <v>100</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
@@ -3709,16 +3772,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D135">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
@@ -3729,19 +3792,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3749,16 +3812,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
@@ -3769,19 +3832,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3789,16 +3852,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D139">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -3809,16 +3872,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D140">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
@@ -3829,16 +3892,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D141">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
@@ -3849,19 +3912,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3869,16 +3932,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
@@ -3892,13 +3955,13 @@
         <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -3912,13 +3975,13 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
@@ -3932,16 +3995,16 @@
         <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3952,13 +4015,13 @@
         <v>140</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
@@ -3969,16 +4032,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
@@ -3989,16 +4052,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
@@ -4009,16 +4072,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
@@ -4029,16 +4092,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
       </c>
       <c r="D151">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
@@ -4049,16 +4112,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D152">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -4069,16 +4132,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
@@ -4089,16 +4152,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
@@ -4109,16 +4172,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
@@ -4129,19 +4192,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4149,16 +4212,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
@@ -4169,16 +4232,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
@@ -4189,16 +4252,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D159">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
@@ -4209,19 +4272,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D160">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4229,16 +4292,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D161">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
@@ -4249,16 +4312,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
@@ -4269,16 +4332,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D163">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
@@ -4289,16 +4352,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D164">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
@@ -4309,19 +4372,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D165">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4329,16 +4392,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
@@ -4349,28 +4412,449 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167">
+        <v>80</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>60</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>150</v>
+      </c>
+      <c r="B170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <v>100</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>150</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>130</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <v>11</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>150</v>
+      </c>
+      <c r="B174" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>150</v>
+      </c>
+      <c r="B175" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>150</v>
+      </c>
+      <c r="B176" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>3</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B178" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>60</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>175</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180">
+        <v>170</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>160</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>100</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>100</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184">
+        <v>95</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>193</v>
+      </c>
+      <c r="C185" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185">
+        <v>30</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186">
+        <v>25</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
         <v>185</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C188" t="s">
         <v>24</v>
       </c>
-      <c r="D167">
+      <c r="D188">
         <v>10</v>
       </c>
-      <c r="E167" t="b">
-        <v>0</v>
-      </c>
-      <c r="F167">
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F167">
-    <sortCondition ref="A2:A167"/>
-    <sortCondition ref="C2:C167"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
+    <sortCondition ref="A2:A188"/>
+    <sortCondition ref="C2:C188"/>
+    <sortCondition descending="1" ref="D2:D188"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0141B93E-FE95-4A5A-ABD7-BE73904A1E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379C6096-9172-41D5-9415-5A0CFBFE20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="247">
   <si>
     <t>faction</t>
   </si>
@@ -702,6 +702,84 @@
   </si>
   <si>
     <t>Evil LL</t>
+  </si>
+  <si>
+    <t>Angbor the Fearless</t>
+  </si>
+  <si>
+    <t>Axeman of Lossarnach</t>
+  </si>
+  <si>
+    <t>Blackroot Vale Archer</t>
+  </si>
+  <si>
+    <t>Captain of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Cirdan</t>
+  </si>
+  <si>
+    <t>Clansman of Lamedon</t>
+  </si>
+  <si>
+    <t>Crebain</t>
+  </si>
+  <si>
+    <t>Duinhir</t>
+  </si>
+  <si>
+    <t>Dunlending Chieftan</t>
+  </si>
+  <si>
+    <t>Dunlending Horseman</t>
+  </si>
+  <si>
+    <t>Dunlending Huscarl</t>
+  </si>
+  <si>
+    <t>Dunlending Warrior</t>
+  </si>
+  <si>
+    <t>Dwarf King</t>
+  </si>
+  <si>
+    <t>Erestor</t>
+  </si>
+  <si>
+    <t>Forlong the Fat</t>
+  </si>
+  <si>
+    <t>Frida Tallspear</t>
+  </si>
+  <si>
+    <t>Gil-Galad</t>
+  </si>
+  <si>
+    <t>Gorulf Ironskin</t>
+  </si>
+  <si>
+    <t>High Elf Stormcaller</t>
+  </si>
+  <si>
+    <t>Lindir</t>
+  </si>
+  <si>
+    <t>Man-at-Arms of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Rivendell Knight</t>
+  </si>
+  <si>
+    <t>Thrydan Wolfsbane</t>
+  </si>
+  <si>
+    <t>Wild Man Oathmaker</t>
+  </si>
+  <si>
+    <t>Wild Man of Dunland</t>
+  </si>
+  <si>
+    <t>Galadhrim Stormcaller</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,13 +1659,13 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1607,13 +1685,13 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1633,13 +1711,13 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1659,13 +1737,13 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1685,13 +1763,13 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1711,13 +1789,13 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1737,13 +1815,13 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1763,13 +1841,13 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1789,13 +1867,13 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1815,13 +1893,13 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1841,13 +1919,13 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1867,10 +1945,10 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -1893,19 +1971,19 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1919,19 +1997,19 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1945,13 +2023,13 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F32">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1971,13 +2049,13 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1997,13 +2075,13 @@
         <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2023,19 +2101,19 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2049,39 +2127,39 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2092,22 +2170,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2118,22 +2196,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2144,22 +2222,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2170,22 +2248,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2196,22 +2274,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2222,22 +2300,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2248,48 +2326,48 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2300,22 +2378,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2335,13 +2413,13 @@
         <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2361,13 +2439,13 @@
         <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2387,13 +2465,13 @@
         <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2407,19 +2485,19 @@
         <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2433,19 +2511,19 @@
         <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2459,19 +2537,19 @@
         <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2485,19 +2563,19 @@
         <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2511,19 +2589,19 @@
         <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2537,25 +2615,25 @@
         <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F55">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2563,19 +2641,19 @@
         <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2589,22 +2667,22 @@
         <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2615,19 +2693,19 @@
         <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2641,19 +2719,19 @@
         <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2667,19 +2745,19 @@
         <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2699,13 +2777,13 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2719,19 +2797,19 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2745,19 +2823,19 @@
         <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2771,19 +2849,19 @@
         <v>208</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -2797,19 +2875,19 @@
         <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -2823,19 +2901,19 @@
         <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -2849,19 +2927,19 @@
         <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -2875,19 +2953,19 @@
         <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -2901,22 +2979,22 @@
         <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2927,19 +3005,19 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -2953,19 +3031,19 @@
         <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -2979,19 +3057,19 @@
         <v>208</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -3005,19 +3083,19 @@
         <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3037,13 +3115,13 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3063,13 +3141,13 @@
         <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -3089,13 +3167,13 @@
         <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -3115,13 +3193,13 @@
         <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -3141,13 +3219,13 @@
         <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3167,13 +3245,13 @@
         <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -3193,19 +3271,19 @@
         <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3219,19 +3297,19 @@
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3245,13 +3323,13 @@
         <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -3271,13 +3349,13 @@
         <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -3297,13 +3375,13 @@
         <v>72</v>
       </c>
       <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
         <v>80</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84">
-        <v>9</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -3323,13 +3401,13 @@
         <v>72</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
@@ -3349,16 +3427,16 @@
         <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3375,13 +3453,13 @@
         <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -3392,48 +3470,48 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F88">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3444,22 +3522,22 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3470,22 +3548,22 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F91">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3496,74 +3574,74 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F92">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F93">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F94">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3574,22 +3652,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F95">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -3600,22 +3678,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -3626,22 +3704,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F97">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3652,25 +3730,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F98">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3678,22 +3756,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3713,19 +3791,19 @@
         <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3739,13 +3817,13 @@
         <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -3765,13 +3843,13 @@
         <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -3791,13 +3869,13 @@
         <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -3817,13 +3895,13 @@
         <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -3843,13 +3921,13 @@
         <v>97</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -3869,13 +3947,13 @@
         <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -3895,13 +3973,13 @@
         <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -3921,13 +3999,13 @@
         <v>97</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -3947,13 +4025,13 @@
         <v>97</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
@@ -3973,13 +4051,13 @@
         <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -3999,13 +4077,13 @@
         <v>97</v>
       </c>
       <c r="D111" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F111">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -4025,13 +4103,13 @@
         <v>97</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
@@ -4051,13 +4129,13 @@
         <v>97</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -4077,13 +4155,13 @@
         <v>97</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -4103,13 +4181,13 @@
         <v>97</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -4129,13 +4207,13 @@
         <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
@@ -4155,13 +4233,13 @@
         <v>97</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -4181,13 +4259,13 @@
         <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F118">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4207,13 +4285,13 @@
         <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F119">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -4233,13 +4311,13 @@
         <v>97</v>
       </c>
       <c r="D120" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F120">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -4259,13 +4337,13 @@
         <v>97</v>
       </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -4285,13 +4363,13 @@
         <v>97</v>
       </c>
       <c r="D122" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F122">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -4311,19 +4389,19 @@
         <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4337,19 +4415,19 @@
         <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F124">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4363,13 +4441,13 @@
         <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F125">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -4389,13 +4467,13 @@
         <v>97</v>
       </c>
       <c r="D126" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F126">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -4415,13 +4493,13 @@
         <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -4441,13 +4519,13 @@
         <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -4467,13 +4545,13 @@
         <v>97</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
@@ -4493,13 +4571,13 @@
         <v>97</v>
       </c>
       <c r="D130" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F130">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
@@ -4519,13 +4597,13 @@
         <v>97</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F131">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -4545,13 +4623,13 @@
         <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4571,13 +4649,13 @@
         <v>97</v>
       </c>
       <c r="D133" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F133">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -4597,16 +4675,16 @@
         <v>97</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4614,19 +4692,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F135">
         <v>160</v>
@@ -4635,53 +4713,53 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F136">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F137">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
@@ -4692,22 +4770,22 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D138" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
@@ -4718,22 +4796,22 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C139" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -4744,22 +4822,22 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F140">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
@@ -4770,22 +4848,22 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -4796,22 +4874,22 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D142" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F142">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -4822,22 +4900,22 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C143" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F143">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
@@ -4848,22 +4926,22 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
@@ -4874,22 +4952,22 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F145">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
@@ -4900,25 +4978,25 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F146">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4929,19 +5007,19 @@
         <v>208</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C147" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -4955,19 +5033,19 @@
         <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -4981,19 +5059,19 @@
         <v>208</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C149" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -5007,16 +5085,16 @@
         <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C150" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F150">
         <v>75</v>
@@ -5033,19 +5111,19 @@
         <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F151">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
@@ -5059,19 +5137,19 @@
         <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D152" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F152">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
@@ -5085,19 +5163,19 @@
         <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -5111,22 +5189,22 @@
         <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D154" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F154">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5137,19 +5215,19 @@
         <v>208</v>
       </c>
       <c r="B155" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D155" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F155">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
@@ -5163,19 +5241,19 @@
         <v>208</v>
       </c>
       <c r="B156" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C156" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D156" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F156">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
@@ -5189,19 +5267,19 @@
         <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C157" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D157" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="E157" t="s">
         <v>22</v>
       </c>
       <c r="F157">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
@@ -5215,19 +5293,19 @@
         <v>208</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D158" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F158">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -5241,19 +5319,19 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F159">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
@@ -5273,13 +5351,13 @@
         <v>135</v>
       </c>
       <c r="D160" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F160">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -5299,13 +5377,13 @@
         <v>135</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
@@ -5325,13 +5403,13 @@
         <v>135</v>
       </c>
       <c r="D162" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -5351,16 +5429,16 @@
         <v>135</v>
       </c>
       <c r="D163" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F163">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5377,13 +5455,13 @@
         <v>135</v>
       </c>
       <c r="D164" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F164">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -5394,22 +5472,22 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C165" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
       </c>
       <c r="F165">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -5420,22 +5498,22 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C166" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="F166">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
@@ -5446,22 +5524,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F167">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
@@ -5472,22 +5550,22 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C168" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
       </c>
       <c r="F168">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -5498,22 +5576,22 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C169" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D169" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E169" t="s">
         <v>7</v>
       </c>
       <c r="F169">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G169" t="b">
         <v>0</v>
@@ -5524,22 +5602,22 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C170" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D170" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
       </c>
       <c r="F170">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G170" t="b">
         <v>0</v>
@@ -5550,22 +5628,22 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D171" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
       </c>
       <c r="F171">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G171" t="b">
         <v>0</v>
@@ -5576,25 +5654,25 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F172">
         <v>65</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -5602,22 +5680,22 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D173" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F173">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -5628,22 +5706,22 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C174" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D174" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F174">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G174" t="b">
         <v>0</v>
@@ -5654,22 +5732,22 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D175" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F175">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G175" t="b">
         <v>0</v>
@@ -5680,25 +5758,25 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D176" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -5709,19 +5787,19 @@
         <v>208</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C177" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D177" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F177">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -5735,19 +5813,19 @@
         <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F178">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -5761,19 +5839,19 @@
         <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D179" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F179">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -5787,19 +5865,19 @@
         <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F180">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -5813,22 +5891,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C181" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F181">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -5839,19 +5917,19 @@
         <v>208</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D182" t="s">
+        <v>144</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182">
         <v>6</v>
-      </c>
-      <c r="E182" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182">
-        <v>100</v>
       </c>
       <c r="G182" t="b">
         <v>0</v>
@@ -5862,22 +5940,22 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C183" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D183" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F183">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
@@ -5888,22 +5966,22 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D184" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G184" t="b">
         <v>0</v>
@@ -5914,22 +5992,22 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C185" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D185" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
@@ -5940,22 +6018,22 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C186" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D186" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G186" t="b">
         <v>0</v>
@@ -5966,22 +6044,22 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C187" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
@@ -5992,22 +6070,22 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="D188" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F188">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G188" t="b">
         <v>0</v>
@@ -6018,22 +6096,22 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F189">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G189" t="b">
         <v>0</v>
@@ -6044,22 +6122,22 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C190" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F190">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -6070,22 +6148,22 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C191" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F191">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
@@ -6096,22 +6174,22 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C192" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F192">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G192" t="b">
         <v>0</v>
@@ -6122,22 +6200,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C193" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F193">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
@@ -6148,22 +6226,22 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D194" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194">
         <v>7</v>
-      </c>
-      <c r="F194">
-        <v>100</v>
       </c>
       <c r="G194" t="b">
         <v>0</v>
@@ -6174,22 +6252,22 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="E195" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G195" t="b">
         <v>0</v>
@@ -6200,22 +6278,22 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="E196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F196">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G196" t="b">
         <v>0</v>
@@ -6226,22 +6304,22 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F197">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G197" t="b">
         <v>0</v>
@@ -6252,22 +6330,22 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F198">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G198" t="b">
         <v>0</v>
@@ -6278,22 +6356,22 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D199" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G199" t="b">
         <v>0</v>
@@ -6304,19 +6382,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F200">
         <v>100</v>
@@ -6330,22 +6408,22 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E201" t="s">
         <v>7</v>
       </c>
       <c r="F201">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G201" t="b">
         <v>0</v>
@@ -6356,22 +6434,22 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F202">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G202" t="b">
         <v>0</v>
@@ -6382,22 +6460,22 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F203">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G203" t="b">
         <v>0</v>
@@ -6408,22 +6486,22 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F204">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G204" t="b">
         <v>0</v>
@@ -6434,22 +6512,22 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F205">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G205" t="b">
         <v>0</v>
@@ -6460,22 +6538,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D206" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F206">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G206" t="b">
         <v>0</v>
@@ -6486,36 +6564,712 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207" t="s">
+        <v>42</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>140</v>
+      </c>
+      <c r="G207" t="b">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" t="s">
+        <v>235</v>
+      </c>
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>80</v>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209" t="s">
+        <v>221</v>
+      </c>
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209">
+        <v>65</v>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <v>60</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" t="s">
+        <v>41</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>11</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" t="s">
+        <v>222</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>9</v>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" t="s">
+        <v>213</v>
+      </c>
+      <c r="D213" t="s">
+        <v>241</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>9</v>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>208</v>
+      </c>
+      <c r="B214" t="s">
+        <v>213</v>
+      </c>
+      <c r="C214" t="s">
+        <v>213</v>
+      </c>
+      <c r="D214" t="s">
+        <v>223</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>208</v>
+      </c>
+      <c r="B215" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215" t="s">
+        <v>226</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215" t="b">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" t="s">
+        <v>210</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>70</v>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217">
+        <v>160</v>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>210</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>100</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219">
+        <v>100</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>100</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221">
+        <v>24</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" t="s">
+        <v>210</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>14</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>209</v>
+      </c>
+      <c r="B223" t="s">
         <v>215</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C223" t="s">
         <v>215</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D223" t="s">
+        <v>150</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223">
+        <v>80</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>209</v>
+      </c>
+      <c r="B224" t="s">
+        <v>215</v>
+      </c>
+      <c r="C224" t="s">
+        <v>215</v>
+      </c>
+      <c r="D224" t="s">
+        <v>147</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>60</v>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>209</v>
+      </c>
+      <c r="B225" t="s">
+        <v>215</v>
+      </c>
+      <c r="C225" t="s">
+        <v>215</v>
+      </c>
+      <c r="D225" t="s">
+        <v>146</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225">
+        <v>50</v>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>209</v>
+      </c>
+      <c r="B226" t="s">
+        <v>215</v>
+      </c>
+      <c r="C226" t="s">
+        <v>215</v>
+      </c>
+      <c r="D226" t="s">
+        <v>153</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226">
+        <v>100</v>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>209</v>
+      </c>
+      <c r="B227" t="s">
+        <v>215</v>
+      </c>
+      <c r="C227" t="s">
+        <v>215</v>
+      </c>
+      <c r="D227" t="s">
+        <v>160</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227">
+        <v>130</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>209</v>
+      </c>
+      <c r="B228" t="s">
+        <v>215</v>
+      </c>
+      <c r="C228" t="s">
+        <v>215</v>
+      </c>
+      <c r="D228" t="s">
+        <v>152</v>
+      </c>
+      <c r="E228" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228">
+        <v>13</v>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>209</v>
+      </c>
+      <c r="B229" t="s">
+        <v>215</v>
+      </c>
+      <c r="C229" t="s">
+        <v>215</v>
+      </c>
+      <c r="D229" t="s">
+        <v>148</v>
+      </c>
+      <c r="E229" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229">
+        <v>11</v>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" t="s">
+        <v>215</v>
+      </c>
+      <c r="C230" t="s">
+        <v>215</v>
+      </c>
+      <c r="D230" t="s">
+        <v>145</v>
+      </c>
+      <c r="E230" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230">
+        <v>9</v>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>209</v>
+      </c>
+      <c r="B231" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" t="s">
+        <v>215</v>
+      </c>
+      <c r="D231" t="s">
+        <v>155</v>
+      </c>
+      <c r="E231" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231">
+        <v>9</v>
+      </c>
+      <c r="G231" t="b">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>209</v>
+      </c>
+      <c r="B232" t="s">
+        <v>215</v>
+      </c>
+      <c r="C232" t="s">
+        <v>215</v>
+      </c>
+      <c r="D232" t="s">
+        <v>151</v>
+      </c>
+      <c r="E232" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232">
+        <v>8</v>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" t="s">
+        <v>215</v>
+      </c>
+      <c r="C233" t="s">
+        <v>215</v>
+      </c>
+      <c r="D233" t="s">
         <v>149</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E233" t="s">
         <v>12</v>
       </c>
-      <c r="F207">
+      <c r="F233">
         <v>6</v>
       </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207">
+      <c r="G233" t="b">
+        <v>0</v>
+      </c>
+      <c r="H233">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H207" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H207">
-    <sortCondition ref="B2:B207"/>
-    <sortCondition ref="E2:E207"/>
-    <sortCondition descending="1" ref="F2:F207"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H233">
+    <sortCondition ref="B2:B233"/>
+    <sortCondition ref="E2:E233"/>
+    <sortCondition descending="1" ref="F2:F233"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD5C18-C845-4375-BED8-AB7AA7448206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA503C7-6E72-479D-97CB-5A885AA9AB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$H$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$H$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="250">
   <si>
     <t>faction</t>
   </si>
@@ -668,12 +668,6 @@
     <t>Evil Army</t>
   </si>
   <si>
-    <t>Dead of Dunharrow</t>
-  </si>
-  <si>
-    <t>Kingdom of Khazad-Dum</t>
-  </si>
-  <si>
     <t>The Easterlings</t>
   </si>
   <si>
@@ -689,103 +683,112 @@
     <t>profile_origin</t>
   </si>
   <si>
+    <t>Good LL</t>
+  </si>
+  <si>
+    <t>Evil LL</t>
+  </si>
+  <si>
+    <t>Angbor the Fearless</t>
+  </si>
+  <si>
+    <t>Axeman of Lossarnach</t>
+  </si>
+  <si>
+    <t>Blackroot Vale Archer</t>
+  </si>
+  <si>
+    <t>Captain of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Cirdan</t>
+  </si>
+  <si>
+    <t>Clansman of Lamedon</t>
+  </si>
+  <si>
+    <t>Crebain</t>
+  </si>
+  <si>
+    <t>Duinhir</t>
+  </si>
+  <si>
+    <t>Dunlending Chieftan</t>
+  </si>
+  <si>
+    <t>Dunlending Horseman</t>
+  </si>
+  <si>
+    <t>Dunlending Huscarl</t>
+  </si>
+  <si>
+    <t>Dunlending Warrior</t>
+  </si>
+  <si>
+    <t>Dwarf King</t>
+  </si>
+  <si>
+    <t>Erestor</t>
+  </si>
+  <si>
+    <t>Forlong the Fat</t>
+  </si>
+  <si>
+    <t>Frida Tallspear</t>
+  </si>
+  <si>
+    <t>Gil-Galad</t>
+  </si>
+  <si>
+    <t>Gorulf Ironskin</t>
+  </si>
+  <si>
+    <t>High Elf Stormcaller</t>
+  </si>
+  <si>
+    <t>Lindir</t>
+  </si>
+  <si>
+    <t>Man-at-Arms of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Rivendell Knight</t>
+  </si>
+  <si>
+    <t>Thrydan Wolfsbane</t>
+  </si>
+  <si>
+    <t>Wild Man Oathmaker</t>
+  </si>
+  <si>
+    <t>Wild Man of Dunland</t>
+  </si>
+  <si>
+    <t>Galadhrim Stormcaller</t>
+  </si>
+  <si>
+    <t>Barad-dur</t>
+  </si>
+  <si>
+    <t>Grishnak</t>
+  </si>
+  <si>
+    <t>Angmar</t>
+  </si>
+  <si>
+    <t>The Dead of Dunharrow</t>
+  </si>
+  <si>
+    <t>The Kingdom of Khazad-Dum</t>
+  </si>
+  <si>
+    <t>The Host of the Dragon Emperor</t>
+  </si>
+  <si>
     <t>The Return of the King</t>
   </si>
   <si>
-    <t>Good LL</t>
-  </si>
-  <si>
-    <t>Host of the Dragon Emperor</t>
-  </si>
-  <si>
-    <t>Evil LL</t>
-  </si>
-  <si>
-    <t>Angbor the Fearless</t>
-  </si>
-  <si>
-    <t>Axeman of Lossarnach</t>
-  </si>
-  <si>
-    <t>Blackroot Vale Archer</t>
-  </si>
-  <si>
-    <t>Captain of Dol Amroth</t>
-  </si>
-  <si>
-    <t>Cirdan</t>
-  </si>
-  <si>
-    <t>Clansman of Lamedon</t>
-  </si>
-  <si>
-    <t>Crebain</t>
-  </si>
-  <si>
-    <t>Duinhir</t>
-  </si>
-  <si>
-    <t>Dunlending Chieftan</t>
-  </si>
-  <si>
-    <t>Dunlending Horseman</t>
-  </si>
-  <si>
-    <t>Dunlending Huscarl</t>
-  </si>
-  <si>
-    <t>Dunlending Warrior</t>
-  </si>
-  <si>
-    <t>Dwarf King</t>
-  </si>
-  <si>
-    <t>Erestor</t>
-  </si>
-  <si>
-    <t>Forlong the Fat</t>
-  </si>
-  <si>
-    <t>Frida Tallspear</t>
-  </si>
-  <si>
-    <t>Gil-Galad</t>
-  </si>
-  <si>
-    <t>Gorulf Ironskin</t>
-  </si>
-  <si>
-    <t>High Elf Stormcaller</t>
-  </si>
-  <si>
-    <t>Lindir</t>
-  </si>
-  <si>
-    <t>Man-at-Arms of Dol Amroth</t>
-  </si>
-  <si>
-    <t>Rivendell Knight</t>
-  </si>
-  <si>
-    <t>Thrydan Wolfsbane</t>
-  </si>
-  <si>
-    <t>Wild Man Oathmaker</t>
-  </si>
-  <si>
-    <t>Wild Man of Dunland</t>
-  </si>
-  <si>
-    <t>Galadhrim Stormcaller</t>
-  </si>
-  <si>
-    <t>Barad-dur</t>
-  </si>
-  <si>
-    <t>Grishnak</t>
-  </si>
-  <si>
-    <t>Angmar</t>
+    <t>The Kingdom of Moria</t>
   </si>
 </sst>
 </file>
@@ -1193,17 +1196,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1243,10 +1246,10 @@
         <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -1269,10 +1272,10 @@
         <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>182</v>
@@ -1295,10 +1298,10 @@
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>183</v>
@@ -1321,19 +1324,19 @@
         <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1347,10 +1350,10 @@
         <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -1373,25 +1376,25 @@
         <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,19 +1402,19 @@
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1425,19 +1428,19 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1451,25 +1454,25 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,19 +1480,19 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1503,19 +1506,19 @@
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1529,10 +1532,10 @@
         <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
@@ -1555,10 +1558,10 @@
         <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -1581,25 +1584,25 @@
         <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,25 +1610,25 @@
         <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,19 +1636,19 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1659,19 +1662,19 @@
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1685,19 +1688,19 @@
         <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1711,19 +1714,19 @@
         <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1737,22 +1740,22 @@
         <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1763,19 +1766,19 @@
         <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1789,19 +1792,19 @@
         <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1812,22 +1815,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1838,22 +1841,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1864,22 +1867,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1890,22 +1893,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1916,22 +1919,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1942,22 +1945,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1968,16 +1971,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1994,22 +1997,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2020,22 +2023,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2046,22 +2049,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2072,22 +2075,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2098,22 +2101,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -2124,22 +2127,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -2150,22 +2153,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2176,22 +2179,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2211,13 +2214,13 @@
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2237,13 +2240,13 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F40">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2263,13 +2266,13 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F41">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2289,19 +2292,19 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F42">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2315,10 +2318,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>65</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2341,13 +2344,13 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2367,13 +2370,13 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2393,13 +2396,13 @@
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2419,13 +2422,13 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2445,13 +2448,13 @@
         <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2471,13 +2474,13 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2494,16 +2497,16 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2520,16 +2523,16 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2549,13 +2552,13 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2575,13 +2578,13 @@
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
         <v>7</v>
-      </c>
-      <c r="F53">
-        <v>90</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2601,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2624,16 +2627,16 @@
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2644,22 +2647,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2670,74 +2673,74 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2748,22 +2751,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2774,22 +2777,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2800,22 +2803,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2826,22 +2829,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2852,25 +2855,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2878,22 +2881,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -2904,22 +2907,22 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -2930,22 +2933,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -2956,22 +2959,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -2982,22 +2985,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -3008,22 +3011,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -3037,19 +3040,19 @@
         <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -3063,19 +3066,19 @@
         <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -3089,19 +3092,19 @@
         <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -3115,19 +3118,19 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -3141,19 +3144,19 @@
         <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -3167,19 +3170,19 @@
         <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
       </c>
       <c r="F76">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -3193,19 +3196,19 @@
         <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -3219,19 +3222,19 @@
         <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3245,25 +3248,25 @@
         <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3271,19 +3274,19 @@
         <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -3297,19 +3300,19 @@
         <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -3323,19 +3326,19 @@
         <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F82">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -3349,19 +3352,19 @@
         <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -3375,19 +3378,19 @@
         <v>207</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -3401,19 +3404,19 @@
         <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F85">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
@@ -3427,19 +3430,19 @@
         <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -3453,25 +3456,25 @@
         <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F87">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3479,25 +3482,25 @@
         <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F88">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3505,19 +3508,19 @@
         <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3531,19 +3534,19 @@
         <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D90" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3557,19 +3560,19 @@
         <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F91">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3583,19 +3586,19 @@
         <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D92" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -3609,19 +3612,19 @@
         <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
       </c>
       <c r="F93">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -3635,19 +3638,19 @@
         <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
       </c>
       <c r="F94">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3658,48 +3661,48 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -3710,22 +3713,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3736,22 +3739,22 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -3762,22 +3765,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3788,22 +3791,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3814,22 +3817,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -3840,22 +3843,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
@@ -3866,22 +3869,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -3892,22 +3895,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -3918,22 +3921,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F105">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -3944,22 +3947,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
@@ -3970,22 +3973,22 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -3996,22 +3999,22 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -4022,22 +4025,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
@@ -4048,22 +4051,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -4074,22 +4077,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
@@ -4100,22 +4103,22 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
@@ -4126,22 +4129,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F113">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
@@ -4152,22 +4155,22 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F114">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -4178,22 +4181,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -4204,74 +4207,74 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F117">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4282,22 +4285,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -4308,22 +4311,22 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C120" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D120" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F120">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -4334,22 +4337,22 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -4360,25 +4363,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="D122" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4386,22 +4389,22 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -4421,19 +4424,19 @@
         <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F124">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,16 +4447,16 @@
         <v>97</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F125">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -4473,13 +4476,13 @@
         <v>97</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F126">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -4496,16 +4499,16 @@
         <v>97</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D127" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F127">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -4522,16 +4525,16 @@
         <v>97</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D128" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F128">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
@@ -4548,22 +4551,22 @@
         <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D129" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F129">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4574,22 +4577,22 @@
         <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D130" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F130">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,16 +4603,16 @@
         <v>97</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F131">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -4626,16 +4629,16 @@
         <v>97</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D132" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F132">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -4655,13 +4658,13 @@
         <v>97</v>
       </c>
       <c r="D133" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F133">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -4678,16 +4681,16 @@
         <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D134" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F134">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
@@ -4707,13 +4710,13 @@
         <v>97</v>
       </c>
       <c r="D135" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F135">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
@@ -4730,16 +4733,16 @@
         <v>97</v>
       </c>
       <c r="C136" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D136" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F136">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
@@ -4756,16 +4759,16 @@
         <v>97</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F137">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
@@ -4785,13 +4788,13 @@
         <v>97</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F138">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
@@ -4808,16 +4811,16 @@
         <v>97</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F139">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
@@ -4834,19 +4837,19 @@
         <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4854,22 +4857,22 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C141" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="D141" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
@@ -4880,22 +4883,22 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="E142" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
@@ -4906,22 +4909,22 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F143">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
@@ -4932,22 +4935,22 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C144" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D144" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F144">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
@@ -4958,22 +4961,22 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D145" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F145">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
@@ -4984,22 +4987,22 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F146">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
@@ -5010,22 +5013,22 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -5036,22 +5039,22 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C148" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F148">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -5062,22 +5065,22 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F149">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -5088,22 +5091,22 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B150" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
       </c>
       <c r="F150">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
@@ -5114,22 +5117,22 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F151">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
@@ -5140,25 +5143,25 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D152" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F152">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5166,22 +5169,22 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C153" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F153">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -5192,22 +5195,22 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C154" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D154" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
@@ -5218,22 +5221,22 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C155" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
@@ -5244,22 +5247,22 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D156" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F156">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
@@ -5270,22 +5273,22 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B157" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F157">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
@@ -5296,74 +5299,74 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C158" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D158" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F158">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="G158" t="b">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C160" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D160" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F160">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
@@ -5374,22 +5377,22 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C161" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F161">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
@@ -5400,22 +5403,22 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
@@ -5426,22 +5429,22 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B163" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C163" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F163">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
@@ -5452,22 +5455,22 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B164" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
@@ -5478,22 +5481,22 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B165" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D165" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F165">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
@@ -5504,25 +5507,25 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D166" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F166">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5530,22 +5533,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B167" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
@@ -5556,22 +5559,22 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D168" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F168">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G168" t="b">
         <v>0</v>
@@ -5582,25 +5585,25 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="D169" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5611,22 +5614,22 @@
         <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C170" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D170" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F170">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5637,19 +5640,19 @@
         <v>207</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C171" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D171" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F171">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G171" t="b">
         <v>0</v>
@@ -5663,19 +5666,19 @@
         <v>207</v>
       </c>
       <c r="B172" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C172" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D172" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F172">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
@@ -5689,19 +5692,19 @@
         <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C173" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D173" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F173">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G173" t="b">
         <v>0</v>
@@ -5715,19 +5718,19 @@
         <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C174" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D174" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F174">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G174" t="b">
         <v>0</v>
@@ -5741,22 +5744,22 @@
         <v>207</v>
       </c>
       <c r="B175" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C175" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D175" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F175">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -5767,19 +5770,19 @@
         <v>207</v>
       </c>
       <c r="B176" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C176" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D176" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F176">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G176" t="b">
         <v>0</v>
@@ -5793,19 +5796,19 @@
         <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="D177" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F177">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -5819,19 +5822,19 @@
         <v>207</v>
       </c>
       <c r="B178" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C178" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="D178" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F178">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -5845,19 +5848,19 @@
         <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C179" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="D179" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="E179" t="s">
         <v>7</v>
       </c>
       <c r="F179">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -5871,19 +5874,19 @@
         <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="D180" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F180">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -5897,22 +5900,22 @@
         <v>207</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
       </c>
       <c r="F181">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -5920,22 +5923,22 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="C182" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D182" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F182">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G182" t="b">
         <v>0</v>
@@ -5946,22 +5949,22 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C183" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D183" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
       </c>
       <c r="F183">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
@@ -5972,22 +5975,22 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B184" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D184" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="F184">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G184" t="b">
         <v>0</v>
@@ -5998,22 +6001,22 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C185" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D185" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F185">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
@@ -6024,22 +6027,22 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C186" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D186" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F186">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G186" t="b">
         <v>0</v>
@@ -6050,22 +6053,22 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C187" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D187" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F187">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
@@ -6076,22 +6079,22 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B188" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C188" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D188" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F188">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G188" t="b">
         <v>0</v>
@@ -6102,22 +6105,22 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B189" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C189" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D189" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F189">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G189" t="b">
         <v>0</v>
@@ -6128,22 +6131,22 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B190" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C190" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D190" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F190">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -6154,22 +6157,22 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B191" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D191" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F191">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
@@ -6180,22 +6183,22 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D192" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F192">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="G192" t="b">
         <v>0</v>
@@ -6206,22 +6209,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D193" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193">
         <v>7</v>
-      </c>
-      <c r="F193">
-        <v>100</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
@@ -6235,19 +6238,19 @@
         <v>207</v>
       </c>
       <c r="B194" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F194">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G194" t="b">
         <v>0</v>
@@ -6261,22 +6264,22 @@
         <v>207</v>
       </c>
       <c r="B195" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F195">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6287,19 +6290,19 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="G196" t="b">
         <v>0</v>
@@ -6313,19 +6316,19 @@
         <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F197">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="G197" t="b">
         <v>0</v>
@@ -6339,19 +6342,19 @@
         <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F198">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G198" t="b">
         <v>0</v>
@@ -6365,22 +6368,22 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D199" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -6391,19 +6394,19 @@
         <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E200" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F200">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G200" t="b">
         <v>0</v>
@@ -6417,19 +6420,19 @@
         <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F201">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G201" t="b">
         <v>0</v>
@@ -6443,19 +6446,19 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G202" t="b">
         <v>0</v>
@@ -6469,16 +6472,16 @@
         <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F203">
         <v>10</v>
@@ -6495,22 +6498,22 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F204">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -6521,19 +6524,19 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="D205" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F205">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="G205" t="b">
         <v>0</v>
@@ -6544,22 +6547,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G206" t="b">
         <v>0</v>
@@ -6570,22 +6573,22 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D207" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F207">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -6596,22 +6599,22 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D208" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F208">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G208" t="b">
         <v>0</v>
@@ -6622,22 +6625,22 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="E209" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F209">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="G209" t="b">
         <v>0</v>
@@ -6648,22 +6651,22 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F210">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G210" t="b">
         <v>0</v>
@@ -6674,22 +6677,22 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="D211" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F211">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="G211" t="b">
         <v>0</v>
@@ -6700,22 +6703,22 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F212">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="G212" t="b">
         <v>0</v>
@@ -6726,25 +6729,25 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D213" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="E213" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F213">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -6752,22 +6755,22 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D214" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
       </c>
       <c r="F214">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G214" t="b">
         <v>0</v>
@@ -6778,22 +6781,22 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C215" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D215" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F215">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G215" t="b">
         <v>0</v>
@@ -6804,22 +6807,22 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C216" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D216" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F216">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G216" t="b">
         <v>0</v>
@@ -6830,22 +6833,22 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C217" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D217" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F217">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G217" t="b">
         <v>0</v>
@@ -6856,22 +6859,22 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C218" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D218" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F218">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="G218" t="b">
         <v>0</v>
@@ -6882,22 +6885,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C219" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D219" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F219">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G219" t="b">
         <v>0</v>
@@ -6908,22 +6911,22 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D220" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E220" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F220">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="G220" t="b">
         <v>0</v>
@@ -6934,22 +6937,22 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C221" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D221" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F221">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G221" t="b">
         <v>0</v>
@@ -6960,22 +6963,22 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F222">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G222" t="b">
         <v>0</v>
@@ -6986,22 +6989,22 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C223" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F223">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G223" t="b">
         <v>0</v>
@@ -7012,22 +7015,22 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C224" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D224" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="E224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224">
         <v>7</v>
-      </c>
-      <c r="F224">
-        <v>95</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
@@ -7041,19 +7044,19 @@
         <v>207</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C225" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D225" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F225">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G225" t="b">
         <v>0</v>
@@ -7067,19 +7070,19 @@
         <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C226" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D226" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F226">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G226" t="b">
         <v>0</v>
@@ -7093,19 +7096,19 @@
         <v>207</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D227" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F227">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G227" t="b">
         <v>0</v>
@@ -7119,19 +7122,19 @@
         <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C228" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D228" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="E228" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G228" t="b">
         <v>0</v>
@@ -7145,19 +7148,19 @@
         <v>207</v>
       </c>
       <c r="B229" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D229" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F229">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="G229" t="b">
         <v>0</v>
@@ -7171,19 +7174,19 @@
         <v>207</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D230" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E230" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F230">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
@@ -7197,25 +7200,25 @@
         <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C231" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D231" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F231">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G231" t="b">
         <v>0</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7223,19 +7226,19 @@
         <v>207</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C232" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D232" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G232" t="b">
         <v>0</v>
@@ -7249,19 +7252,19 @@
         <v>207</v>
       </c>
       <c r="B233" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C233" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D233" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F233">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G233" t="b">
         <v>0</v>
@@ -7275,13 +7278,13 @@
         <v>207</v>
       </c>
       <c r="B234" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C234" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D234" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -7301,19 +7304,19 @@
         <v>207</v>
       </c>
       <c r="B235" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C235" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
       </c>
       <c r="F235">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G235" t="b">
         <v>0</v>
@@ -7327,19 +7330,19 @@
         <v>207</v>
       </c>
       <c r="B236" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C236" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D236" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
       </c>
       <c r="F236">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G236" t="b">
         <v>0</v>
@@ -7353,22 +7356,22 @@
         <v>207</v>
       </c>
       <c r="B237" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C237" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D237" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F237">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -7379,19 +7382,19 @@
         <v>207</v>
       </c>
       <c r="B238" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C238" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D238" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F238">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="G238" t="b">
         <v>0</v>
@@ -7402,22 +7405,22 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B239" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C239" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="F239">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G239" t="b">
         <v>0</v>
@@ -7428,22 +7431,22 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C240" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F240">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="G240" t="b">
         <v>0</v>
@@ -7454,22 +7457,22 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C241" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F241">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G241" t="b">
         <v>0</v>
@@ -7480,16 +7483,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B242" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C242" t="s">
         <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E242" t="s">
         <v>7</v>
@@ -7506,22 +7509,22 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B243" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C243" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F243">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G243" t="b">
         <v>0</v>
@@ -7532,48 +7535,48 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B244" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E244" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F244">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G244" t="b">
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B245" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E245" t="s">
         <v>12</v>
       </c>
       <c r="F245">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G245" t="b">
         <v>0</v>
@@ -7584,22 +7587,22 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B246" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D246" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F246">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G246" t="b">
         <v>0</v>
@@ -7610,22 +7613,22 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B247" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D247" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F247">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G247" t="b">
         <v>0</v>
@@ -7636,22 +7639,22 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D248" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F248">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G248" t="b">
         <v>0</v>
@@ -7662,22 +7665,22 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D249" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="E249" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F249">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G249" t="b">
         <v>0</v>
@@ -7688,22 +7691,22 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B250" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D250" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F250">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G250" t="b">
         <v>0</v>
@@ -7714,22 +7717,22 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B251" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="E251" t="s">
         <v>7</v>
       </c>
       <c r="F251">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G251" t="b">
         <v>0</v>
@@ -7740,22 +7743,22 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B252" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C252" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D252" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F252">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G252" t="b">
         <v>0</v>
@@ -7766,22 +7769,22 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B253" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C253" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F253">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G253" t="b">
         <v>0</v>
@@ -7792,22 +7795,22 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C254" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F254">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G254" t="b">
         <v>0</v>
@@ -7818,22 +7821,22 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B255" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C255" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D255" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
       </c>
       <c r="F255">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G255" t="b">
         <v>0</v>
@@ -7844,22 +7847,22 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B256" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="C256" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D256" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
       </c>
       <c r="F256">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G256" t="b">
         <v>0</v>
@@ -7873,32 +7876,318 @@
         <v>208</v>
       </c>
       <c r="B257" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C257" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D257" t="s">
+        <v>149</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257">
+        <v>80</v>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258" t="s">
+        <v>212</v>
+      </c>
+      <c r="C258" t="s">
+        <v>212</v>
+      </c>
+      <c r="D258" t="s">
+        <v>146</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258">
+        <v>60</v>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>208</v>
+      </c>
+      <c r="B259" t="s">
+        <v>212</v>
+      </c>
+      <c r="C259" t="s">
+        <v>212</v>
+      </c>
+      <c r="D259" t="s">
+        <v>145</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259">
+        <v>50</v>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>208</v>
+      </c>
+      <c r="B260" t="s">
+        <v>212</v>
+      </c>
+      <c r="C260" t="s">
+        <v>212</v>
+      </c>
+      <c r="D260" t="s">
+        <v>152</v>
+      </c>
+      <c r="E260" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260">
+        <v>100</v>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>208</v>
+      </c>
+      <c r="B261" t="s">
+        <v>212</v>
+      </c>
+      <c r="C261" t="s">
+        <v>212</v>
+      </c>
+      <c r="D261" t="s">
+        <v>159</v>
+      </c>
+      <c r="E261" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261">
+        <v>130</v>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>208</v>
+      </c>
+      <c r="B262" t="s">
+        <v>212</v>
+      </c>
+      <c r="C262" t="s">
+        <v>97</v>
+      </c>
+      <c r="D262" t="s">
+        <v>119</v>
+      </c>
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262">
+        <v>120</v>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>208</v>
+      </c>
+      <c r="B263" t="s">
+        <v>212</v>
+      </c>
+      <c r="C263" t="s">
+        <v>212</v>
+      </c>
+      <c r="D263" t="s">
+        <v>151</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263">
+        <v>13</v>
+      </c>
+      <c r="G263" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>208</v>
+      </c>
+      <c r="B264" t="s">
+        <v>212</v>
+      </c>
+      <c r="C264" t="s">
+        <v>212</v>
+      </c>
+      <c r="D264" t="s">
+        <v>147</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264">
+        <v>11</v>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>208</v>
+      </c>
+      <c r="B265" t="s">
+        <v>212</v>
+      </c>
+      <c r="C265" t="s">
+        <v>212</v>
+      </c>
+      <c r="D265" t="s">
+        <v>144</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265">
+        <v>9</v>
+      </c>
+      <c r="G265" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>208</v>
+      </c>
+      <c r="B266" t="s">
+        <v>212</v>
+      </c>
+      <c r="C266" t="s">
+        <v>212</v>
+      </c>
+      <c r="D266" t="s">
+        <v>154</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <v>9</v>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>208</v>
+      </c>
+      <c r="B267" t="s">
+        <v>212</v>
+      </c>
+      <c r="C267" t="s">
+        <v>212</v>
+      </c>
+      <c r="D267" t="s">
+        <v>150</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>8</v>
+      </c>
+      <c r="G267" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>208</v>
+      </c>
+      <c r="B268" t="s">
+        <v>212</v>
+      </c>
+      <c r="C268" t="s">
+        <v>212</v>
+      </c>
+      <c r="D268" t="s">
         <v>148</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E268" t="s">
         <v>12</v>
       </c>
-      <c r="F257">
+      <c r="F268">
         <v>6</v>
       </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
-      <c r="H257">
+      <c r="G268" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H257">
-    <sortCondition ref="B2:B257"/>
-    <sortCondition ref="E2:E257"/>
-    <sortCondition descending="1" ref="F2:F257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H268">
+    <sortCondition ref="B2:B268"/>
+    <sortCondition ref="E2:E268"/>
+    <sortCondition descending="1" ref="F2:F268"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_models.xlsx
+++ b/src/mesbg_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA503C7-6E72-479D-97CB-5A885AA9AB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2F3C9-58F8-4F29-8574-3679E15F765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -1198,24 +1198,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>206</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>80</v>
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>207</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>207</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>207</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>207</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>208</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>208</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>208</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>208</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>208</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>208</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>208</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>208</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>208</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>208</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>208</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>208</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>207</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>207</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>207</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>207</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>207</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>207</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>207</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>207</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>207</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>207</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>207</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>207</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>207</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>207</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>207</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>207</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>207</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>207</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>207</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>207</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>207</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>207</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>207</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>207</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>207</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>207</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>207</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>207</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>207</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>207</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>207</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>208</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>208</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>207</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>207</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>207</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>207</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>207</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>215</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>215</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>215</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>215</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>215</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>207</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>207</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>207</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>207</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>207</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>207</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>207</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>207</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>207</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>207</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>207</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>207</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>207</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>207</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>207</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>207</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>207</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>207</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>207</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>207</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>207</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>207</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>207</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>207</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>214</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>214</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>214</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>214</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>214</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>214</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>214</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>208</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>208</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>208</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>208</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>208</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>208</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>208</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>208</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>208</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>208</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>208</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>208</v>
       </c>
